--- a/data/pca/factorExposure/factorExposure_2015-04-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02021764060769952</v>
+        <v>-0.01145986136452135</v>
       </c>
       <c r="C2">
-        <v>0.02679719030657773</v>
+        <v>0.0532512352151911</v>
       </c>
       <c r="D2">
-        <v>-0.1314409684748337</v>
+        <v>0.130246297539543</v>
       </c>
       <c r="E2">
-        <v>-0.02216943863786835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03073663488421153</v>
+      </c>
+      <c r="F2">
+        <v>-0.02516502596512515</v>
+      </c>
+      <c r="G2">
+        <v>0.06275311587558768</v>
+      </c>
+      <c r="H2">
+        <v>-0.1243206324996287</v>
+      </c>
+      <c r="I2">
+        <v>0.07371873400120765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.0432176165624393</v>
+        <v>-0.01725719108887636</v>
       </c>
       <c r="C4">
-        <v>0.06975528291068434</v>
+        <v>0.106394785277053</v>
       </c>
       <c r="D4">
-        <v>-0.1001032710260069</v>
+        <v>0.1231814547083657</v>
       </c>
       <c r="E4">
-        <v>-0.09910254827959802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01915762292756366</v>
+      </c>
+      <c r="F4">
+        <v>-0.09902988503275681</v>
+      </c>
+      <c r="G4">
+        <v>-0.01095481443209102</v>
+      </c>
+      <c r="H4">
+        <v>-0.05098287958289956</v>
+      </c>
+      <c r="I4">
+        <v>-0.08692584804971214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02716748556077002</v>
+        <v>-0.0310688357526383</v>
       </c>
       <c r="C6">
-        <v>0.0153171758480045</v>
+        <v>0.03939081836057236</v>
       </c>
       <c r="D6">
-        <v>-0.1203205334625134</v>
+        <v>0.1142296237883924</v>
       </c>
       <c r="E6">
-        <v>-0.06103988914347692</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06690070256099183</v>
+      </c>
+      <c r="F6">
+        <v>-0.04476643111760984</v>
+      </c>
+      <c r="G6">
+        <v>-0.03197084007428783</v>
+      </c>
+      <c r="H6">
+        <v>-0.02611050615977689</v>
+      </c>
+      <c r="I6">
+        <v>-0.00448094581230462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001842739410781728</v>
+        <v>-0.00682410385701752</v>
       </c>
       <c r="C7">
-        <v>0.02519928055849748</v>
+        <v>0.03999715107805876</v>
       </c>
       <c r="D7">
-        <v>-0.1060887920996412</v>
+        <v>0.09322411090351775</v>
       </c>
       <c r="E7">
-        <v>-0.02504345393842082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05165484199819241</v>
+      </c>
+      <c r="F7">
+        <v>-0.006531976799337784</v>
+      </c>
+      <c r="G7">
+        <v>-0.06403733668989824</v>
+      </c>
+      <c r="H7">
+        <v>-0.05821339633824567</v>
+      </c>
+      <c r="I7">
+        <v>-0.05276536122349027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.001687075599309839</v>
+        <v>0.007560580689715716</v>
       </c>
       <c r="C8">
-        <v>0.02805574181643266</v>
+        <v>0.03814139509449833</v>
       </c>
       <c r="D8">
-        <v>-0.08052477654748703</v>
+        <v>0.06922471837131579</v>
       </c>
       <c r="E8">
-        <v>-0.04073347020764353</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.03928968541919517</v>
+      </c>
+      <c r="F8">
+        <v>-0.04269231502991183</v>
+      </c>
+      <c r="G8">
+        <v>0.04361100948567383</v>
+      </c>
+      <c r="H8">
+        <v>-0.04408725323538121</v>
+      </c>
+      <c r="I8">
+        <v>-0.02875782210887014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03299893213861704</v>
+        <v>-0.01263005215375261</v>
       </c>
       <c r="C9">
-        <v>0.06124164408916657</v>
+        <v>0.08818582291157663</v>
       </c>
       <c r="D9">
-        <v>-0.1035710263975436</v>
+        <v>0.1067642187170083</v>
       </c>
       <c r="E9">
-        <v>-0.07755566704316424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01718625637507707</v>
+      </c>
+      <c r="F9">
+        <v>-0.06648394388674324</v>
+      </c>
+      <c r="G9">
+        <v>-0.03852702160187021</v>
+      </c>
+      <c r="H9">
+        <v>-0.05025876965960912</v>
+      </c>
+      <c r="I9">
+        <v>-0.04761037701860699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.179743438917061</v>
+        <v>-0.2401020429556115</v>
       </c>
       <c r="C10">
-        <v>-0.1674447211177614</v>
+        <v>-0.0882027619559721</v>
       </c>
       <c r="D10">
-        <v>0.01642590612385577</v>
+        <v>-0.009517204743544953</v>
       </c>
       <c r="E10">
-        <v>-0.0436627143949576</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01446770627184464</v>
+      </c>
+      <c r="F10">
+        <v>-0.04164847908162932</v>
+      </c>
+      <c r="G10">
+        <v>0.01637223198189235</v>
+      </c>
+      <c r="H10">
+        <v>0.01077991612731134</v>
+      </c>
+      <c r="I10">
+        <v>0.009892732342415412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01708429018122961</v>
+        <v>-0.00996791540203742</v>
       </c>
       <c r="C11">
-        <v>0.04193235897609145</v>
+        <v>0.05865715473236594</v>
       </c>
       <c r="D11">
-        <v>-0.04299025783235343</v>
+        <v>0.04017845748415094</v>
       </c>
       <c r="E11">
-        <v>0.0106817713320816</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02372360578936121</v>
+      </c>
+      <c r="F11">
+        <v>0.01266252710741576</v>
+      </c>
+      <c r="G11">
+        <v>-0.03529517575065203</v>
+      </c>
+      <c r="H11">
+        <v>-0.02884999133719774</v>
+      </c>
+      <c r="I11">
+        <v>-0.03807327181644192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01613214781787777</v>
+        <v>-0.00949240630145186</v>
       </c>
       <c r="C12">
-        <v>0.04284032797308615</v>
+        <v>0.05118213420205271</v>
       </c>
       <c r="D12">
-        <v>-0.05596302364760333</v>
+        <v>0.04607826680828841</v>
       </c>
       <c r="E12">
-        <v>0.0007016664493887363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01785778081768261</v>
+      </c>
+      <c r="F12">
+        <v>0.015253110456737</v>
+      </c>
+      <c r="G12">
+        <v>-0.05797486515687819</v>
+      </c>
+      <c r="H12">
+        <v>-0.04056146002543108</v>
+      </c>
+      <c r="I12">
+        <v>-0.01191292588734833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.005543044804549162</v>
+        <v>-0.000558383331152279</v>
       </c>
       <c r="C13">
-        <v>0.02545583716221324</v>
+        <v>0.05672494296542198</v>
       </c>
       <c r="D13">
-        <v>-0.1237236041985112</v>
+        <v>0.1574227472740695</v>
       </c>
       <c r="E13">
-        <v>-0.05382446374375834</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03737299331119916</v>
+      </c>
+      <c r="F13">
+        <v>-0.03323195725752565</v>
+      </c>
+      <c r="G13">
+        <v>-0.03046985330040237</v>
+      </c>
+      <c r="H13">
+        <v>-0.1007895385758036</v>
+      </c>
+      <c r="I13">
+        <v>0.05233090772591199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.004162536072278972</v>
+        <v>-0.002474048368869093</v>
       </c>
       <c r="C14">
-        <v>0.01958532919949403</v>
+        <v>0.03398459080137639</v>
       </c>
       <c r="D14">
-        <v>-0.08194190584906977</v>
+        <v>0.09190231557682847</v>
       </c>
       <c r="E14">
-        <v>-0.0222792777293955</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05718892482607132</v>
+      </c>
+      <c r="F14">
+        <v>-0.02428179506817993</v>
+      </c>
+      <c r="G14">
+        <v>-0.06919427492303377</v>
+      </c>
+      <c r="H14">
+        <v>-0.1328146517124301</v>
+      </c>
+      <c r="I14">
+        <v>-0.01848934347427825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.00298124559078803</v>
+        <v>0.005378855508273307</v>
       </c>
       <c r="C15">
-        <v>0.01056560950454471</v>
+        <v>0.0279782558975335</v>
       </c>
       <c r="D15">
-        <v>-0.03557191793471952</v>
+        <v>0.0576638175421019</v>
       </c>
       <c r="E15">
-        <v>0.0002459588150340506</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.02021031958031074</v>
+      </c>
+      <c r="F15">
+        <v>-0.005415613291272681</v>
+      </c>
+      <c r="G15">
+        <v>-0.01091034017694013</v>
+      </c>
+      <c r="H15">
+        <v>-0.05582020223088588</v>
+      </c>
+      <c r="I15">
+        <v>-0.02799698060920514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.016127749453217</v>
+        <v>-0.009187449276201317</v>
       </c>
       <c r="C16">
-        <v>0.03827882438262774</v>
+        <v>0.05083491484751649</v>
       </c>
       <c r="D16">
-        <v>-0.04905602187073803</v>
+        <v>0.04158422652024512</v>
       </c>
       <c r="E16">
-        <v>-0.0004094552717468253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02488401351679472</v>
+      </c>
+      <c r="F16">
+        <v>0.006850897940328999</v>
+      </c>
+      <c r="G16">
+        <v>-0.04255857852810228</v>
+      </c>
+      <c r="H16">
+        <v>-0.02358816359572182</v>
+      </c>
+      <c r="I16">
+        <v>-0.0250672782441966</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.000218259965202919</v>
+        <v>0.002768075609381593</v>
       </c>
       <c r="C19">
-        <v>0.02102406321773223</v>
+        <v>0.01677447750728865</v>
       </c>
       <c r="D19">
-        <v>-0.06980413993884661</v>
+        <v>0.04896156529258594</v>
       </c>
       <c r="E19">
-        <v>-0.02955533864198612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.007655371504923181</v>
+      </c>
+      <c r="F19">
+        <v>-0.01156878062430793</v>
+      </c>
+      <c r="G19">
+        <v>-0.009539242788721553</v>
+      </c>
+      <c r="H19">
+        <v>-0.04801611624026989</v>
+      </c>
+      <c r="I19">
+        <v>0.004924170960539738</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00254848680368628</v>
+        <v>-0.004380443490879021</v>
       </c>
       <c r="C20">
-        <v>0.02544738854326818</v>
+        <v>0.0423988425096045</v>
       </c>
       <c r="D20">
-        <v>-0.07018262107084243</v>
+        <v>0.08221186713906339</v>
       </c>
       <c r="E20">
-        <v>-0.04110750964388995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02701287916891216</v>
+      </c>
+      <c r="F20">
+        <v>-0.02518434428879333</v>
+      </c>
+      <c r="G20">
+        <v>-0.04279880934969144</v>
+      </c>
+      <c r="H20">
+        <v>-0.03776903633768918</v>
+      </c>
+      <c r="I20">
+        <v>-0.05099025363187955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.006944530347595912</v>
+        <v>-0.004156469311695373</v>
       </c>
       <c r="C21">
-        <v>0.03118256988179337</v>
+        <v>0.04967433020830469</v>
       </c>
       <c r="D21">
-        <v>-0.1259241925297268</v>
+        <v>0.1200070301199977</v>
       </c>
       <c r="E21">
-        <v>-0.09027264295037099</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03405903883532504</v>
+      </c>
+      <c r="F21">
+        <v>-0.08475813869578167</v>
+      </c>
+      <c r="G21">
+        <v>-0.07019972034504718</v>
+      </c>
+      <c r="H21">
+        <v>-0.1868875190438812</v>
+      </c>
+      <c r="I21">
+        <v>0.03830324214456199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.00255522891858611</v>
+        <v>0.01274865754528674</v>
       </c>
       <c r="C22">
-        <v>0.07089261154639351</v>
+        <v>0.09221810604306738</v>
       </c>
       <c r="D22">
-        <v>-0.2962078889651981</v>
+        <v>0.2696632445191208</v>
       </c>
       <c r="E22">
-        <v>-0.06586711827708627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.07521583019271631</v>
+      </c>
+      <c r="F22">
+        <v>-0.01897833913008618</v>
+      </c>
+      <c r="G22">
+        <v>0.5288392207042408</v>
+      </c>
+      <c r="H22">
+        <v>0.1676725199007975</v>
+      </c>
+      <c r="I22">
+        <v>0.04728292059505302</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.002973719123993631</v>
+        <v>0.009590138639917476</v>
       </c>
       <c r="C23">
-        <v>0.07117736505949572</v>
+        <v>0.09399490854646726</v>
       </c>
       <c r="D23">
-        <v>-0.295200494094404</v>
+        <v>0.2721661806257337</v>
       </c>
       <c r="E23">
-        <v>-0.06610348328251942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.07019113985850152</v>
+      </c>
+      <c r="F23">
+        <v>-0.02217855521950035</v>
+      </c>
+      <c r="G23">
+        <v>0.5121854595399669</v>
+      </c>
+      <c r="H23">
+        <v>0.15887124971695</v>
+      </c>
+      <c r="I23">
+        <v>0.04685437493243602</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02232184417225581</v>
+        <v>-0.009878571597670794</v>
       </c>
       <c r="C24">
-        <v>0.05813687230336448</v>
+        <v>0.06762078656460259</v>
       </c>
       <c r="D24">
-        <v>-0.05644316367430464</v>
+        <v>0.04448567728840441</v>
       </c>
       <c r="E24">
-        <v>-0.0004055248503604826</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03100279276232187</v>
+      </c>
+      <c r="F24">
+        <v>0.005854805730873123</v>
+      </c>
+      <c r="G24">
+        <v>-0.04475996280137931</v>
+      </c>
+      <c r="H24">
+        <v>-0.05167455960372568</v>
+      </c>
+      <c r="I24">
+        <v>-0.03596085690240075</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.02290256859321368</v>
+        <v>-0.01382606133924821</v>
       </c>
       <c r="C25">
-        <v>0.05014753989319001</v>
+        <v>0.06254701744508384</v>
       </c>
       <c r="D25">
-        <v>-0.05514229141686769</v>
+        <v>0.04833766186088854</v>
       </c>
       <c r="E25">
-        <v>-0.007160879281147723</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01705214750670652</v>
+      </c>
+      <c r="F25">
+        <v>0.004907481753576912</v>
+      </c>
+      <c r="G25">
+        <v>-0.03465353179681187</v>
+      </c>
+      <c r="H25">
+        <v>-0.02216181147609205</v>
+      </c>
+      <c r="I25">
+        <v>-0.02344119390078218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01007293400860652</v>
+        <v>-0.01741254884106597</v>
       </c>
       <c r="C26">
-        <v>0.01582340735605283</v>
+        <v>0.02951323445349773</v>
       </c>
       <c r="D26">
-        <v>-0.06506071069990789</v>
+        <v>0.06000883087575762</v>
       </c>
       <c r="E26">
-        <v>-0.03029578673515725</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.03987083890012279</v>
+      </c>
+      <c r="F26">
+        <v>-0.04314231205772062</v>
+      </c>
+      <c r="G26">
+        <v>-0.04324046024991676</v>
+      </c>
+      <c r="H26">
+        <v>-0.09434672675102675</v>
+      </c>
+      <c r="I26">
+        <v>-0.02478015662077625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2643295281590823</v>
+        <v>-0.3189650682079629</v>
       </c>
       <c r="C28">
-        <v>-0.1881044218387257</v>
+        <v>-0.08624522589599234</v>
       </c>
       <c r="D28">
-        <v>-4.656968145507214e-05</v>
+        <v>-0.0249770437522981</v>
       </c>
       <c r="E28">
-        <v>-0.04160975519722607</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05038602282522801</v>
+      </c>
+      <c r="F28">
+        <v>-0.04355023436511702</v>
+      </c>
+      <c r="G28">
+        <v>0.05559806550788871</v>
+      </c>
+      <c r="H28">
+        <v>-0.02622424531483562</v>
+      </c>
+      <c r="I28">
+        <v>-0.005154495547865555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001102520277607329</v>
+        <v>-0.001502179502355038</v>
       </c>
       <c r="C29">
-        <v>0.02335027724646591</v>
+        <v>0.03995261291697461</v>
       </c>
       <c r="D29">
-        <v>-0.07818282244650995</v>
+        <v>0.09442984312160181</v>
       </c>
       <c r="E29">
-        <v>-0.03231338372344052</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.06461559857966162</v>
+      </c>
+      <c r="F29">
+        <v>-0.02671577022975492</v>
+      </c>
+      <c r="G29">
+        <v>-0.09382370776498743</v>
+      </c>
+      <c r="H29">
+        <v>-0.1459510945399196</v>
+      </c>
+      <c r="I29">
+        <v>-0.02039803370370351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02438828958367394</v>
+        <v>-0.01279057982857528</v>
       </c>
       <c r="C30">
-        <v>0.06845336390242368</v>
+        <v>0.09408501755897973</v>
       </c>
       <c r="D30">
-        <v>-0.1476840979668777</v>
+        <v>0.1298041362027974</v>
       </c>
       <c r="E30">
-        <v>-0.04236521873677049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06002260177616499</v>
+      </c>
+      <c r="F30">
+        <v>-0.0204297256594949</v>
+      </c>
+      <c r="G30">
+        <v>-0.008790606638321754</v>
+      </c>
+      <c r="H30">
+        <v>-0.0391934472426368</v>
+      </c>
+      <c r="I30">
+        <v>-0.0600374156350366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03582535373259534</v>
+        <v>-0.00792917377685878</v>
       </c>
       <c r="C31">
-        <v>0.08464470859776768</v>
+        <v>0.09515121304771293</v>
       </c>
       <c r="D31">
-        <v>-0.05727837368249287</v>
+        <v>0.03808423463559335</v>
       </c>
       <c r="E31">
-        <v>-0.01950516058549685</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02104977336508253</v>
+      </c>
+      <c r="F31">
+        <v>-0.01509223653052666</v>
+      </c>
+      <c r="G31">
+        <v>-0.01941229056307085</v>
+      </c>
+      <c r="H31">
+        <v>-0.03847707030039742</v>
+      </c>
+      <c r="I31">
+        <v>-0.01838069651329892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01846382162241919</v>
+        <v>-0.01239733525758956</v>
       </c>
       <c r="C32">
-        <v>0.03988610131377138</v>
+        <v>0.05428004835697745</v>
       </c>
       <c r="D32">
-        <v>-0.06354217378134144</v>
+        <v>0.07625561919219455</v>
       </c>
       <c r="E32">
-        <v>-0.04258645306313014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006695210809555469</v>
+      </c>
+      <c r="F32">
+        <v>-0.04014924807626558</v>
+      </c>
+      <c r="G32">
+        <v>-0.02155669381831883</v>
+      </c>
+      <c r="H32">
+        <v>-0.06541435851800094</v>
+      </c>
+      <c r="I32">
+        <v>0.0005958091200464614</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006213258207402169</v>
+        <v>-0.005185940567272342</v>
       </c>
       <c r="C33">
-        <v>0.04216156273870469</v>
+        <v>0.06115646610321378</v>
       </c>
       <c r="D33">
-        <v>-0.1136827095266478</v>
+        <v>0.1144715307684764</v>
       </c>
       <c r="E33">
-        <v>-0.04681443400987886</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03259402490554487</v>
+      </c>
+      <c r="F33">
+        <v>-0.02794740871573926</v>
+      </c>
+      <c r="G33">
+        <v>-0.02809487043461358</v>
+      </c>
+      <c r="H33">
+        <v>-0.05267915662945773</v>
+      </c>
+      <c r="I33">
+        <v>-0.02017149539519209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01997909040931776</v>
+        <v>-0.007612766729154757</v>
       </c>
       <c r="C34">
-        <v>0.05922329895135737</v>
+        <v>0.06200385261923783</v>
       </c>
       <c r="D34">
-        <v>-0.05475115482138133</v>
+        <v>0.02636856006939063</v>
       </c>
       <c r="E34">
-        <v>0.03781831588022851</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02953327831933851</v>
+      </c>
+      <c r="F34">
+        <v>0.03954847881844574</v>
+      </c>
+      <c r="G34">
+        <v>-0.0350043207063671</v>
+      </c>
+      <c r="H34">
+        <v>-0.03067357023571948</v>
+      </c>
+      <c r="I34">
+        <v>-0.01424171460908509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.003082050731250894</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01253321040636396</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.03274448729340897</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.007323606956261003</v>
+      </c>
+      <c r="F35">
+        <v>-0.01564899820420724</v>
+      </c>
+      <c r="G35">
+        <v>-0.03841720452751963</v>
+      </c>
+      <c r="H35">
+        <v>-0.05326823160010249</v>
+      </c>
+      <c r="I35">
+        <v>-0.01890006036597005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006630562935473715</v>
+        <v>-0.0116961391947377</v>
       </c>
       <c r="C36">
-        <v>0.008635532397169497</v>
+        <v>0.02411797730008419</v>
       </c>
       <c r="D36">
-        <v>-0.0680499271195233</v>
+        <v>0.06924614485240579</v>
       </c>
       <c r="E36">
-        <v>-0.0504531469794107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.03171594649946916</v>
+      </c>
+      <c r="F36">
+        <v>-0.04682210183751098</v>
+      </c>
+      <c r="G36">
+        <v>-0.02942356272622669</v>
+      </c>
+      <c r="H36">
+        <v>-0.06247666191680422</v>
+      </c>
+      <c r="I36">
+        <v>-0.01958118295253319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007052258936751834</v>
+        <v>-0.01073597532063426</v>
       </c>
       <c r="C38">
-        <v>0.008223026136965451</v>
+        <v>0.02703512396853818</v>
       </c>
       <c r="D38">
-        <v>-0.07287910215783161</v>
+        <v>0.08160303876665326</v>
       </c>
       <c r="E38">
-        <v>-0.00587281970194337</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.009815861162523807</v>
+      </c>
+      <c r="F38">
+        <v>0.0001648407533175498</v>
+      </c>
+      <c r="G38">
+        <v>-0.001823530642511431</v>
+      </c>
+      <c r="H38">
+        <v>-0.06713616360028764</v>
+      </c>
+      <c r="I38">
+        <v>-0.05485044269509542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0151184498858032</v>
+        <v>-0.004175008636491167</v>
       </c>
       <c r="C39">
-        <v>0.05999123356681152</v>
+        <v>0.08001556920411829</v>
       </c>
       <c r="D39">
-        <v>-0.1009658722961756</v>
+        <v>0.08542365366809232</v>
       </c>
       <c r="E39">
-        <v>-0.003268841571690821</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0549533520677422</v>
+      </c>
+      <c r="F39">
+        <v>0.008166675605773962</v>
+      </c>
+      <c r="G39">
+        <v>-0.06721818098627325</v>
+      </c>
+      <c r="H39">
+        <v>-0.07419658654672767</v>
+      </c>
+      <c r="I39">
+        <v>-0.04248973132261873</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01743250663031569</v>
+        <v>-0.01387106209619929</v>
       </c>
       <c r="C40">
-        <v>0.02211163398005339</v>
+        <v>0.04293052876590035</v>
       </c>
       <c r="D40">
-        <v>-0.1070243386767094</v>
+        <v>0.0938350173067219</v>
       </c>
       <c r="E40">
-        <v>0.003193001743758667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.05340962383144469</v>
+      </c>
+      <c r="F40">
+        <v>0.03081098192724948</v>
+      </c>
+      <c r="G40">
+        <v>0.01225605916501017</v>
+      </c>
+      <c r="H40">
+        <v>-0.100290339637635</v>
+      </c>
+      <c r="I40">
+        <v>0.0144897207656275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009132144197052319</v>
+        <v>-0.01500540947769377</v>
       </c>
       <c r="C41">
-        <v>0.004784873899279255</v>
+        <v>0.0203158658592529</v>
       </c>
       <c r="D41">
-        <v>-0.03341845922512734</v>
+        <v>0.04245812773904593</v>
       </c>
       <c r="E41">
-        <v>-0.02580481243060881</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.004319762730780649</v>
+      </c>
+      <c r="F41">
+        <v>-0.02345491465707568</v>
+      </c>
+      <c r="G41">
+        <v>-0.0153180416639874</v>
+      </c>
+      <c r="H41">
+        <v>-0.04136112838546395</v>
+      </c>
+      <c r="I41">
+        <v>-0.0180943257089386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0002982366031289787</v>
+        <v>-0.007469226523741322</v>
       </c>
       <c r="C43">
-        <v>0.004360854929117365</v>
+        <v>0.01670416545797214</v>
       </c>
       <c r="D43">
-        <v>-0.05018971199698075</v>
+        <v>0.05182659709582239</v>
       </c>
       <c r="E43">
-        <v>-0.02244824521306018</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01210214747507066</v>
+      </c>
+      <c r="F43">
+        <v>-0.02215035246342304</v>
+      </c>
+      <c r="G43">
+        <v>-0.0219034742007903</v>
+      </c>
+      <c r="H43">
+        <v>-0.0514070999151681</v>
+      </c>
+      <c r="I43">
+        <v>-0.03794815391989156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02186149843347331</v>
+        <v>-0.01234283417074892</v>
       </c>
       <c r="C44">
-        <v>0.02437784739550085</v>
+        <v>0.04932895581538797</v>
       </c>
       <c r="D44">
-        <v>-0.07859025952834041</v>
+        <v>0.09414730620167454</v>
       </c>
       <c r="E44">
-        <v>-0.05010825408525401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.03933763354251268</v>
+      </c>
+      <c r="F44">
+        <v>-0.03218367881468377</v>
+      </c>
+      <c r="G44">
+        <v>-0.0002568933386456482</v>
+      </c>
+      <c r="H44">
+        <v>-0.06791079261845305</v>
+      </c>
+      <c r="I44">
+        <v>-0.03666631674926779</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.00603964392718141</v>
+        <v>0.001108398681232637</v>
       </c>
       <c r="C46">
-        <v>0.03126488757957202</v>
+        <v>0.04389410419931253</v>
       </c>
       <c r="D46">
-        <v>-0.07260889529161248</v>
+        <v>0.06873986803698003</v>
       </c>
       <c r="E46">
-        <v>-0.02444161421050229</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04652028229539294</v>
+      </c>
+      <c r="F46">
+        <v>-0.02889475735675635</v>
+      </c>
+      <c r="G46">
+        <v>-0.054035539182863</v>
+      </c>
+      <c r="H46">
+        <v>-0.1185943013229087</v>
+      </c>
+      <c r="I46">
+        <v>-0.04377416494426128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07636683695184561</v>
+        <v>-0.03060666558778943</v>
       </c>
       <c r="C47">
-        <v>0.1086054591371436</v>
+        <v>0.1288393315899914</v>
       </c>
       <c r="D47">
-        <v>-0.04415979222983802</v>
+        <v>0.02043335661798251</v>
       </c>
       <c r="E47">
-        <v>-0.01379130527914448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.009858403772538528</v>
+      </c>
+      <c r="F47">
+        <v>0.005047686920307582</v>
+      </c>
+      <c r="G47">
+        <v>-0.05621308324473542</v>
+      </c>
+      <c r="H47">
+        <v>-0.02115227500864255</v>
+      </c>
+      <c r="I47">
+        <v>-0.02931036029158695</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.00924284322595827</v>
+        <v>-0.01486361330576766</v>
       </c>
       <c r="C48">
-        <v>0.01880870409078078</v>
+        <v>0.03515771468344552</v>
       </c>
       <c r="D48">
-        <v>-0.06317484358695909</v>
+        <v>0.07186883187979907</v>
       </c>
       <c r="E48">
-        <v>-0.0495693222554481</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02204473315396902</v>
+      </c>
+      <c r="F48">
+        <v>-0.0534967674996543</v>
+      </c>
+      <c r="G48">
+        <v>-0.04538313809636366</v>
+      </c>
+      <c r="H48">
+        <v>-0.1000144541554924</v>
+      </c>
+      <c r="I48">
+        <v>-0.0435752002221397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0325687461712308</v>
+        <v>-0.01216849461503492</v>
       </c>
       <c r="C50">
-        <v>0.05892590249502769</v>
+        <v>0.07724874652200743</v>
       </c>
       <c r="D50">
-        <v>-0.05409979087544686</v>
+        <v>0.04678111862231072</v>
       </c>
       <c r="E50">
-        <v>-0.008295441977011596</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01544065770801311</v>
+      </c>
+      <c r="F50">
+        <v>-0.007746636433288961</v>
+      </c>
+      <c r="G50">
+        <v>-0.005626597147233714</v>
+      </c>
+      <c r="H50">
+        <v>-0.02777861975022454</v>
+      </c>
+      <c r="I50">
+        <v>-0.02746934947049389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001000323488836576</v>
+        <v>0.0007656324238283327</v>
       </c>
       <c r="C51">
-        <v>0.006115858137969059</v>
+        <v>0.01772589916509032</v>
       </c>
       <c r="D51">
-        <v>-0.05085741767566389</v>
+        <v>0.05133403079885297</v>
       </c>
       <c r="E51">
-        <v>-0.02087573854787811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03858930701722973</v>
+      </c>
+      <c r="F51">
+        <v>-0.03503354851162219</v>
+      </c>
+      <c r="G51">
+        <v>-0.008775481036498042</v>
+      </c>
+      <c r="H51">
+        <v>-0.07155843541489691</v>
+      </c>
+      <c r="I51">
+        <v>-0.003502255956788138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1067603353820735</v>
+        <v>-0.05266970833972432</v>
       </c>
       <c r="C53">
-        <v>0.1267201834520643</v>
+        <v>0.1591929684318285</v>
       </c>
       <c r="D53">
-        <v>0.009697194924338329</v>
+        <v>-0.02198104047706336</v>
       </c>
       <c r="E53">
-        <v>-0.03987141924792641</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02742480229432868</v>
+      </c>
+      <c r="F53">
+        <v>-0.04479559222732016</v>
+      </c>
+      <c r="G53">
+        <v>-0.009568737767646832</v>
+      </c>
+      <c r="H53">
+        <v>-0.01033522373774002</v>
+      </c>
+      <c r="I53">
+        <v>-0.01460400614367417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01052034072495569</v>
+        <v>-0.01059728024130631</v>
       </c>
       <c r="C54">
-        <v>0.02327904513150265</v>
+        <v>0.04012965328509798</v>
       </c>
       <c r="D54">
-        <v>-0.08259808396110555</v>
+        <v>0.07604839178889175</v>
       </c>
       <c r="E54">
-        <v>-0.01013627844499417</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.02200130069699801</v>
+      </c>
+      <c r="F54">
+        <v>-0.002513648942197977</v>
+      </c>
+      <c r="G54">
+        <v>-0.02318023789839377</v>
+      </c>
+      <c r="H54">
+        <v>-0.07489317025194628</v>
+      </c>
+      <c r="I54">
+        <v>-0.04985099188543383</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09237528518014081</v>
+        <v>-0.03998307568116975</v>
       </c>
       <c r="C55">
-        <v>0.1090430805644292</v>
+        <v>0.131479438736441</v>
       </c>
       <c r="D55">
-        <v>-0.002860517988525546</v>
+        <v>-0.03722642515937178</v>
       </c>
       <c r="E55">
-        <v>0.0008115246752834644</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.00737977144308811</v>
+      </c>
+      <c r="F55">
+        <v>-0.00451822784897662</v>
+      </c>
+      <c r="G55">
+        <v>-0.002575055950595526</v>
+      </c>
+      <c r="H55">
+        <v>-0.005352060807170598</v>
+      </c>
+      <c r="I55">
+        <v>0.006471297757308615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1322112142810427</v>
+        <v>-0.05402204969626129</v>
       </c>
       <c r="C56">
-        <v>0.1482916242749254</v>
+        <v>0.1910373878167558</v>
       </c>
       <c r="D56">
-        <v>-0.003715114579269349</v>
+        <v>-0.03883145440162233</v>
       </c>
       <c r="E56">
-        <v>0.01105854528423404</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.0271379613578087</v>
+      </c>
+      <c r="F56">
+        <v>-0.006052506354402232</v>
+      </c>
+      <c r="G56">
+        <v>0.03326422800959974</v>
+      </c>
+      <c r="H56">
+        <v>-0.03320018381372906</v>
+      </c>
+      <c r="I56">
+        <v>-0.000780459067644037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.007927376287759219</v>
+        <v>-0.00344242329831833</v>
       </c>
       <c r="C58">
-        <v>0.01491095847442677</v>
+        <v>0.06124421567598668</v>
       </c>
       <c r="D58">
-        <v>-0.2122424711118245</v>
+        <v>0.2820354405882549</v>
       </c>
       <c r="E58">
-        <v>-0.1234232045795547</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.03117263884377741</v>
+      </c>
+      <c r="F58">
+        <v>-0.1248816433794405</v>
+      </c>
+      <c r="G58">
+        <v>0.1654757058159083</v>
+      </c>
+      <c r="H58">
+        <v>-0.002246841165667428</v>
+      </c>
+      <c r="I58">
+        <v>-0.03619175600626325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1844610787687261</v>
+        <v>-0.254261511768633</v>
       </c>
       <c r="C59">
-        <v>-0.1403521220950206</v>
+        <v>-0.05666144719202364</v>
       </c>
       <c r="D59">
-        <v>-0.03919036320893108</v>
+        <v>0.05195060119137686</v>
       </c>
       <c r="E59">
-        <v>-0.02803112197873761</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02258958763237586</v>
+      </c>
+      <c r="F59">
+        <v>-0.02265861869799253</v>
+      </c>
+      <c r="G59">
+        <v>0.01084263493601666</v>
+      </c>
+      <c r="H59">
+        <v>-0.01442452209384833</v>
+      </c>
+      <c r="I59">
+        <v>0.03205221158401979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1811608003982351</v>
+        <v>-0.148676899569448</v>
       </c>
       <c r="C60">
-        <v>0.1020908192684503</v>
+        <v>0.1716398350657097</v>
       </c>
       <c r="D60">
-        <v>-0.2329326098983947</v>
+        <v>0.09263366984674413</v>
       </c>
       <c r="E60">
-        <v>0.0362683456461785</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1498873301605349</v>
+      </c>
+      <c r="F60">
+        <v>0.1904232198513805</v>
+      </c>
+      <c r="G60">
+        <v>-0.11206822383431</v>
+      </c>
+      <c r="H60">
+        <v>0.2984012110239468</v>
+      </c>
+      <c r="I60">
+        <v>0.1632503995419456</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02354666518444582</v>
+        <v>-0.01046286241856905</v>
       </c>
       <c r="C61">
-        <v>0.05472762024570145</v>
+        <v>0.07592592654469375</v>
       </c>
       <c r="D61">
-        <v>-0.08380686030461529</v>
+        <v>0.07017426973340378</v>
       </c>
       <c r="E61">
-        <v>-0.001187991511509743</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04012038258468261</v>
+      </c>
+      <c r="F61">
+        <v>0.01417446610575363</v>
+      </c>
+      <c r="G61">
+        <v>-0.06986332052607357</v>
+      </c>
+      <c r="H61">
+        <v>-0.05580126261308545</v>
+      </c>
+      <c r="I61">
+        <v>-0.02871215998288936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.00922401571653556</v>
+        <v>-0.009866825551224149</v>
       </c>
       <c r="C63">
-        <v>0.02582735776062273</v>
+        <v>0.04020418114488954</v>
       </c>
       <c r="D63">
-        <v>-0.08331827756840794</v>
+        <v>0.06098347078418452</v>
       </c>
       <c r="E63">
-        <v>-0.02878934579373653</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05846208263962317</v>
+      </c>
+      <c r="F63">
+        <v>-0.02205944890477147</v>
+      </c>
+      <c r="G63">
+        <v>-0.03791168415128033</v>
+      </c>
+      <c r="H63">
+        <v>-0.06358581939629809</v>
+      </c>
+      <c r="I63">
+        <v>-0.03431038796322168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05486022162005362</v>
+        <v>-0.01466652289144035</v>
       </c>
       <c r="C64">
-        <v>0.08688534446472945</v>
+        <v>0.1025362583111473</v>
       </c>
       <c r="D64">
-        <v>-0.01499907714469107</v>
+        <v>0.009697786985387083</v>
       </c>
       <c r="E64">
-        <v>-0.02340062048153277</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02268398341740331</v>
+      </c>
+      <c r="F64">
+        <v>-0.01916685626480101</v>
+      </c>
+      <c r="G64">
+        <v>-0.04456477711907852</v>
+      </c>
+      <c r="H64">
+        <v>-0.02417688267293802</v>
+      </c>
+      <c r="I64">
+        <v>-0.04703422330171048</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.0247760626232785</v>
+        <v>-0.02145543405533422</v>
       </c>
       <c r="C65">
-        <v>0.01761384752652088</v>
+        <v>0.04628837590050608</v>
       </c>
       <c r="D65">
-        <v>-0.1063098402263487</v>
+        <v>0.1109887168682501</v>
       </c>
       <c r="E65">
-        <v>-0.02707095415822194</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.05217328677414669</v>
+      </c>
+      <c r="F65">
+        <v>0.005141518049495124</v>
+      </c>
+      <c r="G65">
+        <v>-0.03548655934907479</v>
+      </c>
+      <c r="H65">
+        <v>0.0201462652148119</v>
+      </c>
+      <c r="I65">
+        <v>-0.03626874645952768</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.020717064866724</v>
+        <v>-0.0009660467234625646</v>
       </c>
       <c r="C66">
-        <v>0.0702374560166394</v>
+        <v>0.09926685124422338</v>
       </c>
       <c r="D66">
-        <v>-0.1215946038749582</v>
+        <v>0.1140845759904691</v>
       </c>
       <c r="E66">
-        <v>-0.005054529245237883</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04851731983400617</v>
+      </c>
+      <c r="F66">
+        <v>0.008825524900275711</v>
+      </c>
+      <c r="G66">
+        <v>-0.03392190628668541</v>
+      </c>
+      <c r="H66">
+        <v>-0.06216648365389386</v>
+      </c>
+      <c r="I66">
+        <v>-0.0376320666902317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02392120392632499</v>
+        <v>-0.02012914517548468</v>
       </c>
       <c r="C67">
-        <v>0.02097941003516296</v>
+        <v>0.03710494214215552</v>
       </c>
       <c r="D67">
-        <v>-0.03948779943452339</v>
+        <v>0.03955608086443731</v>
       </c>
       <c r="E67">
-        <v>0.02331446008812273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01401974594708165</v>
+      </c>
+      <c r="F67">
+        <v>0.02913650495330496</v>
+      </c>
+      <c r="G67">
+        <v>-0.01695480645993687</v>
+      </c>
+      <c r="H67">
+        <v>-0.05565063924407811</v>
+      </c>
+      <c r="I67">
+        <v>-0.04527233759565838</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2079909697312097</v>
+        <v>-0.2776072129531366</v>
       </c>
       <c r="C68">
-        <v>-0.1507553228360777</v>
+        <v>-0.06201843035707868</v>
       </c>
       <c r="D68">
-        <v>-0.02866182574990193</v>
+        <v>0.02701012025716537</v>
       </c>
       <c r="E68">
-        <v>-0.02206879597919187</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.002598209692557239</v>
+      </c>
+      <c r="F68">
+        <v>-0.02333661922015785</v>
+      </c>
+      <c r="G68">
+        <v>0.07797011296899918</v>
+      </c>
+      <c r="H68">
+        <v>0.01078223988118626</v>
+      </c>
+      <c r="I68">
+        <v>0.01106830692920563</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05245667471921302</v>
+        <v>-0.01464179656507949</v>
       </c>
       <c r="C69">
-        <v>0.1184005243140968</v>
+        <v>0.1181175224777635</v>
       </c>
       <c r="D69">
-        <v>-0.07115580665618769</v>
+        <v>0.02645082776116396</v>
       </c>
       <c r="E69">
-        <v>-0.01346816108625872</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01159477630968984</v>
+      </c>
+      <c r="F69">
+        <v>0.0110656181961769</v>
+      </c>
+      <c r="G69">
+        <v>-0.03836601300841082</v>
+      </c>
+      <c r="H69">
+        <v>-0.01994644722713685</v>
+      </c>
+      <c r="I69">
+        <v>-0.01337844708690496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2152876100768938</v>
+        <v>-0.2766214454991928</v>
       </c>
       <c r="C71">
-        <v>-0.1743061210110963</v>
+        <v>-0.07774123914128793</v>
       </c>
       <c r="D71">
-        <v>-0.0198397319661245</v>
+        <v>0.01699614074195582</v>
       </c>
       <c r="E71">
-        <v>-0.01071953494053178</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.001252136941789516</v>
+      </c>
+      <c r="F71">
+        <v>-0.01566422595976644</v>
+      </c>
+      <c r="G71">
+        <v>0.02976207877795989</v>
+      </c>
+      <c r="H71">
+        <v>-0.01183724534953463</v>
+      </c>
+      <c r="I71">
+        <v>-0.007544970183486217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09820210480038419</v>
+        <v>-0.05479612748112794</v>
       </c>
       <c r="C72">
-        <v>0.075727344015009</v>
+        <v>0.1253859989238399</v>
       </c>
       <c r="D72">
-        <v>-0.130570355831172</v>
+        <v>0.06652489352592553</v>
       </c>
       <c r="E72">
-        <v>-0.01243096593673726</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07402425399679555</v>
+      </c>
+      <c r="F72">
+        <v>0.01677541153934921</v>
+      </c>
+      <c r="G72">
+        <v>-0.06444113182219602</v>
+      </c>
+      <c r="H72">
+        <v>-0.01721280640938409</v>
+      </c>
+      <c r="I72">
+        <v>-0.02478128766278174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.169025479097263</v>
+        <v>-0.1406195475162193</v>
       </c>
       <c r="C73">
-        <v>0.07001719090218057</v>
+        <v>0.1513078935351051</v>
       </c>
       <c r="D73">
-        <v>-0.2892162739648425</v>
+        <v>0.1009845060251258</v>
       </c>
       <c r="E73">
-        <v>0.07638310020148859</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.26878068981798</v>
+      </c>
+      <c r="F73">
+        <v>0.2718743078645088</v>
+      </c>
+      <c r="G73">
+        <v>-0.2828859395871672</v>
+      </c>
+      <c r="H73">
+        <v>0.3468351253147054</v>
+      </c>
+      <c r="I73">
+        <v>0.1040892436780524</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1049629095970412</v>
+        <v>-0.0491029588749786</v>
       </c>
       <c r="C74">
-        <v>0.1169908438553128</v>
+        <v>0.144222629187202</v>
       </c>
       <c r="D74">
-        <v>0.03107541729125574</v>
+        <v>-0.04841961214287702</v>
       </c>
       <c r="E74">
-        <v>-0.02877912392529401</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01121504559100224</v>
+      </c>
+      <c r="F74">
+        <v>-0.03119593091513326</v>
+      </c>
+      <c r="G74">
+        <v>0.002861433824461808</v>
+      </c>
+      <c r="H74">
+        <v>0.02048659447740789</v>
+      </c>
+      <c r="I74">
+        <v>0.008601901105008889</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2256934510418572</v>
+        <v>-0.09768112246497948</v>
       </c>
       <c r="C75">
-        <v>0.2026056554841952</v>
+        <v>0.2680141935487961</v>
       </c>
       <c r="D75">
-        <v>0.0895480292688281</v>
+        <v>-0.1299264950351592</v>
       </c>
       <c r="E75">
-        <v>0.07644296071498348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09102887923051708</v>
+      </c>
+      <c r="F75">
+        <v>0.04267181275871282</v>
+      </c>
+      <c r="G75">
+        <v>0.08424845568521304</v>
+      </c>
+      <c r="H75">
+        <v>-0.05357786489641355</v>
+      </c>
+      <c r="I75">
+        <v>-0.06619445708907028</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1343658225841032</v>
+        <v>-0.05525078075720891</v>
       </c>
       <c r="C76">
-        <v>0.1401947069968444</v>
+        <v>0.1797702316490949</v>
       </c>
       <c r="D76">
-        <v>0.00203058579052174</v>
+        <v>-0.05038453776980741</v>
       </c>
       <c r="E76">
-        <v>0.0143622734506417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.01985086112521182</v>
+      </c>
+      <c r="F76">
+        <v>0.002050014947889206</v>
+      </c>
+      <c r="G76">
+        <v>0.02198230387118557</v>
+      </c>
+      <c r="H76">
+        <v>-0.04531939603417787</v>
+      </c>
+      <c r="I76">
+        <v>-0.02123822980778563</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01762575839756869</v>
+        <v>0.0008951573273864357</v>
       </c>
       <c r="C77">
-        <v>0.07061742841936691</v>
+        <v>0.1101036068944417</v>
       </c>
       <c r="D77">
-        <v>0.02972875553532405</v>
+        <v>0.3447002768636244</v>
       </c>
       <c r="E77">
-        <v>0.01248701190971157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8443225466169326</v>
+      </c>
+      <c r="F77">
+        <v>0.1869407819956432</v>
+      </c>
+      <c r="G77">
+        <v>-0.1091938780636217</v>
+      </c>
+      <c r="H77">
+        <v>0.2066072062392135</v>
+      </c>
+      <c r="I77">
+        <v>0.00976164422826553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02886103407810945</v>
+        <v>-0.0163987288481791</v>
       </c>
       <c r="C78">
-        <v>0.07345083475680358</v>
+        <v>0.0921758194301945</v>
       </c>
       <c r="D78">
-        <v>-0.1427287502056241</v>
+        <v>0.1070355385353118</v>
       </c>
       <c r="E78">
-        <v>-0.06212092209851808</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.06212551391266576</v>
+      </c>
+      <c r="F78">
+        <v>-0.04938664723275218</v>
+      </c>
+      <c r="G78">
+        <v>0.01169218494645341</v>
+      </c>
+      <c r="H78">
+        <v>-0.07059041650783085</v>
+      </c>
+      <c r="I78">
+        <v>0.03801682745173741</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1014350774242814</v>
+        <v>-0.03652591341838423</v>
       </c>
       <c r="C79">
-        <v>0.1894250889681685</v>
+        <v>0.2014237220134415</v>
       </c>
       <c r="D79">
-        <v>0.3000032447016231</v>
+        <v>-0.1073606867261654</v>
       </c>
       <c r="E79">
-        <v>-0.8584115340650204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.07029036234360526</v>
+      </c>
+      <c r="F79">
+        <v>-0.8125834139392504</v>
+      </c>
+      <c r="G79">
+        <v>-0.1806966166360635</v>
+      </c>
+      <c r="H79">
+        <v>0.3807047248090766</v>
+      </c>
+      <c r="I79">
+        <v>0.05403243335071466</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.002993513501114656</v>
+        <v>-0.005064417887227969</v>
       </c>
       <c r="C80">
-        <v>0.04500470888835138</v>
+        <v>0.04473229358729041</v>
       </c>
       <c r="D80">
-        <v>-0.05286712952889808</v>
+        <v>0.03924381964380661</v>
       </c>
       <c r="E80">
-        <v>-0.006086676733774575</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04864555818610981</v>
+      </c>
+      <c r="F80">
+        <v>0.002414731568127242</v>
+      </c>
+      <c r="G80">
+        <v>-0.01991795251168843</v>
+      </c>
+      <c r="H80">
+        <v>-0.03628809342252861</v>
+      </c>
+      <c r="I80">
+        <v>0.08439322811773134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1150943589916557</v>
+        <v>-0.0397880806718295</v>
       </c>
       <c r="C81">
-        <v>0.1378382088135273</v>
+        <v>0.1659488826012554</v>
       </c>
       <c r="D81">
-        <v>0.08669650212998864</v>
+        <v>-0.08392880543490888</v>
       </c>
       <c r="E81">
-        <v>-0.009017949345326338</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04813188321042731</v>
+      </c>
+      <c r="F81">
+        <v>-0.0530890969632203</v>
+      </c>
+      <c r="G81">
+        <v>0.02724402983247742</v>
+      </c>
+      <c r="H81">
+        <v>-0.08735674629471797</v>
+      </c>
+      <c r="I81">
+        <v>-0.002653273207092538</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.241900767110066</v>
+        <v>-0.08414725158738748</v>
       </c>
       <c r="C82">
-        <v>0.2972729785738218</v>
+        <v>0.313222152574905</v>
       </c>
       <c r="D82">
-        <v>0.1744517868229803</v>
+        <v>-0.241997525648209</v>
       </c>
       <c r="E82">
-        <v>0.2188567233573812</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0668328829136217</v>
+      </c>
+      <c r="F82">
+        <v>0.1301507658876304</v>
+      </c>
+      <c r="G82">
+        <v>0.04450043228898607</v>
+      </c>
+      <c r="H82">
+        <v>-0.141293722161743</v>
+      </c>
+      <c r="I82">
+        <v>-0.01098021830563423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01029184115834961</v>
+        <v>0.01239176475595174</v>
       </c>
       <c r="C83">
-        <v>0.05316945806097235</v>
+        <v>0.02187586005952032</v>
       </c>
       <c r="D83">
-        <v>0.002005270439038645</v>
+        <v>0.02157876776109</v>
       </c>
       <c r="E83">
-        <v>-0.02489586084898304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08969467418255128</v>
+      </c>
+      <c r="F83">
+        <v>-0.06019668244816301</v>
+      </c>
+      <c r="G83">
+        <v>-0.02406879785698136</v>
+      </c>
+      <c r="H83">
+        <v>-0.2783365338280364</v>
+      </c>
+      <c r="I83">
+        <v>0.892018821655018</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.0001726763713663973</v>
+        <v>0.004058042134746503</v>
       </c>
       <c r="C84">
-        <v>-0.001791431473201713</v>
+        <v>0.01747769560087181</v>
       </c>
       <c r="D84">
-        <v>-0.0005955596717223749</v>
+        <v>0.04153361503982459</v>
       </c>
       <c r="E84">
-        <v>0.002252514683011818</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.001796706372251048</v>
+      </c>
+      <c r="F84">
+        <v>-0.02751910064273028</v>
+      </c>
+      <c r="G84">
+        <v>0.03223196486815786</v>
+      </c>
+      <c r="H84">
+        <v>-0.05101140678038455</v>
+      </c>
+      <c r="I84">
+        <v>-0.06332089382562074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1374589413688222</v>
+        <v>-0.05378336310319156</v>
       </c>
       <c r="C85">
-        <v>0.1424558143152765</v>
+        <v>0.1814906339081098</v>
       </c>
       <c r="D85">
-        <v>0.05581192209271763</v>
+        <v>-0.1013731761027572</v>
       </c>
       <c r="E85">
-        <v>-0.03721562332767853</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0001629681636858387</v>
+      </c>
+      <c r="F85">
+        <v>-0.06612185783155369</v>
+      </c>
+      <c r="G85">
+        <v>0.02658893515658722</v>
+      </c>
+      <c r="H85">
+        <v>0.003915391878624099</v>
+      </c>
+      <c r="I85">
+        <v>-0.007532012564990771</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01835382498598219</v>
+        <v>-0.01454253963606967</v>
       </c>
       <c r="C86">
-        <v>0.01179130673766376</v>
+        <v>0.0408469920171858</v>
       </c>
       <c r="D86">
-        <v>-0.08671799660035275</v>
+        <v>0.1091661886655717</v>
       </c>
       <c r="E86">
-        <v>-0.02292427934141402</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02011608624699315</v>
+      </c>
+      <c r="F86">
+        <v>-0.01469046101023784</v>
+      </c>
+      <c r="G86">
+        <v>-0.01665778700640194</v>
+      </c>
+      <c r="H86">
+        <v>0.01394036928829176</v>
+      </c>
+      <c r="I86">
+        <v>-0.02774937743188012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02184531849889535</v>
+        <v>-0.01095551893928851</v>
       </c>
       <c r="C87">
-        <v>0.02949970440247296</v>
+        <v>0.06377798632521373</v>
       </c>
       <c r="D87">
-        <v>-0.1160666117826213</v>
+        <v>0.131921243410118</v>
       </c>
       <c r="E87">
-        <v>-0.05279005151971258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01593427394858789</v>
+      </c>
+      <c r="F87">
+        <v>-0.03929526451851459</v>
+      </c>
+      <c r="G87">
+        <v>0.02448538651527945</v>
+      </c>
+      <c r="H87">
+        <v>-0.0874919387289215</v>
+      </c>
+      <c r="I87">
+        <v>-0.002723792370855001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05146004885239212</v>
+        <v>-0.03254044999424788</v>
       </c>
       <c r="C88">
-        <v>0.04488754009185689</v>
+        <v>0.06988217203213998</v>
       </c>
       <c r="D88">
-        <v>-0.01468309436421965</v>
+        <v>0.01662806314477544</v>
       </c>
       <c r="E88">
-        <v>-0.02756547353963943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.0249287540186389</v>
+      </c>
+      <c r="F88">
+        <v>-0.02041371898429056</v>
+      </c>
+      <c r="G88">
+        <v>-0.02058470381189608</v>
+      </c>
+      <c r="H88">
+        <v>-0.005133888130137473</v>
+      </c>
+      <c r="I88">
+        <v>-0.02680435957664594</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3258045674700064</v>
+        <v>-0.4080263431371481</v>
       </c>
       <c r="C89">
-        <v>-0.3176117528222743</v>
+        <v>-0.1504934917116259</v>
       </c>
       <c r="D89">
-        <v>-0.003486310894712279</v>
+        <v>0.03586497231340949</v>
       </c>
       <c r="E89">
-        <v>-0.07993417673381584</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04800562549704305</v>
+      </c>
+      <c r="F89">
+        <v>-0.05727273664729882</v>
+      </c>
+      <c r="G89">
+        <v>-0.03790194709154612</v>
+      </c>
+      <c r="H89">
+        <v>-0.1511830836318478</v>
+      </c>
+      <c r="I89">
+        <v>0.0580130996662061</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.263149440334087</v>
+        <v>-0.3218330928694281</v>
       </c>
       <c r="C90">
-        <v>-0.233815546471161</v>
+        <v>-0.1011375254124293</v>
       </c>
       <c r="D90">
-        <v>-0.04967406948061307</v>
+        <v>0.03018351507590292</v>
       </c>
       <c r="E90">
-        <v>0.01294563212773742</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.009199895842596327</v>
+      </c>
+      <c r="F90">
+        <v>0.01121842238255156</v>
+      </c>
+      <c r="G90">
+        <v>0.0614103625181167</v>
+      </c>
+      <c r="H90">
+        <v>-0.03518805421258607</v>
+      </c>
+      <c r="I90">
+        <v>0.01309072213089587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.15055311623343</v>
+        <v>-0.06433329876758942</v>
       </c>
       <c r="C91">
-        <v>0.1890965987115296</v>
+        <v>0.2061331351363008</v>
       </c>
       <c r="D91">
-        <v>0.108341126535755</v>
+        <v>-0.1123359056288198</v>
       </c>
       <c r="E91">
-        <v>-0.04438006596970867</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06170494647917856</v>
+      </c>
+      <c r="F91">
+        <v>-0.05771070672094347</v>
+      </c>
+      <c r="G91">
+        <v>0.01026145738339465</v>
+      </c>
+      <c r="H91">
+        <v>0.001507244045032121</v>
+      </c>
+      <c r="I91">
+        <v>0.02840116524325398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2459918163179827</v>
+        <v>-0.3405978516473378</v>
       </c>
       <c r="C92">
-        <v>-0.2593479196268826</v>
+        <v>-0.1372053754985618</v>
       </c>
       <c r="D92">
-        <v>0.06396195746037454</v>
+        <v>0.01182927580122659</v>
       </c>
       <c r="E92">
-        <v>-0.01363438580937605</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06869756308817358</v>
+      </c>
+      <c r="F92">
+        <v>-0.03934115386561677</v>
+      </c>
+      <c r="G92">
+        <v>0.02345225846674439</v>
+      </c>
+      <c r="H92">
+        <v>-0.01868905932868608</v>
+      </c>
+      <c r="I92">
+        <v>-0.1352499645015565</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2865200352825297</v>
+        <v>-0.3355564625013361</v>
       </c>
       <c r="C93">
-        <v>-0.2435129379897404</v>
+        <v>-0.10884980917476</v>
       </c>
       <c r="D93">
-        <v>-0.007721320029889395</v>
+        <v>-0.01661871236532293</v>
       </c>
       <c r="E93">
-        <v>-0.01875548317318953</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02307239378300358</v>
+      </c>
+      <c r="F93">
+        <v>-0.01272947937223029</v>
+      </c>
+      <c r="G93">
+        <v>-0.004627768233402002</v>
+      </c>
+      <c r="H93">
+        <v>0.03643453738981608</v>
+      </c>
+      <c r="I93">
+        <v>-0.02793292560419914</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2845266513794588</v>
+        <v>-0.1198950331225542</v>
       </c>
       <c r="C94">
-        <v>0.2735733909964316</v>
+        <v>0.3430811803493578</v>
       </c>
       <c r="D94">
-        <v>0.267851589052902</v>
+        <v>-0.3629006441068128</v>
       </c>
       <c r="E94">
-        <v>0.2722046140039491</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06172181343613966</v>
+      </c>
+      <c r="F94">
+        <v>0.1387499028427362</v>
+      </c>
+      <c r="G94">
+        <v>0.297391552103499</v>
+      </c>
+      <c r="H94">
+        <v>-0.1094319681951092</v>
+      </c>
+      <c r="I94">
+        <v>-0.03361190946884812</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01014461012033923</v>
+        <v>-0.01265491279092294</v>
       </c>
       <c r="C95">
-        <v>0.04226106328078863</v>
+        <v>0.06610512668406807</v>
       </c>
       <c r="D95">
-        <v>0.02321451839189573</v>
+        <v>0.09502453750727669</v>
       </c>
       <c r="E95">
-        <v>0.01919211524952558</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1489755202887541</v>
+      </c>
+      <c r="F95">
+        <v>0.03433308553693838</v>
+      </c>
+      <c r="G95">
+        <v>-0.2141222777012869</v>
+      </c>
+      <c r="H95">
+        <v>-0.2130040478609198</v>
+      </c>
+      <c r="I95">
+        <v>-0.181015414638607</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001728988480190133</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.00107354061692374</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008379005618835986</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.003674023367630324</v>
+      </c>
+      <c r="F97">
+        <v>-0.0003534381761102833</v>
+      </c>
+      <c r="G97">
+        <v>-8.034231832009047e-05</v>
+      </c>
+      <c r="H97">
+        <v>-0.002554335093273647</v>
+      </c>
+      <c r="I97">
+        <v>-0.006530734399944417</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1495684999615202</v>
+        <v>-0.1234493817262462</v>
       </c>
       <c r="C98">
-        <v>0.08933571464794053</v>
+        <v>0.1553789926772559</v>
       </c>
       <c r="D98">
-        <v>-0.191527466114944</v>
+        <v>0.06657446843386905</v>
       </c>
       <c r="E98">
-        <v>0.08008316685355332</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.1865167887466307</v>
+      </c>
+      <c r="F98">
+        <v>0.2235614545692265</v>
+      </c>
+      <c r="G98">
+        <v>-0.1910413327796232</v>
+      </c>
+      <c r="H98">
+        <v>0.288867777385992</v>
+      </c>
+      <c r="I98">
+        <v>0.1277372628044681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.001847763927836935</v>
+        <v>-0.0019772255810012</v>
       </c>
       <c r="C101">
-        <v>0.02261672293962621</v>
+        <v>0.03919151561095424</v>
       </c>
       <c r="D101">
-        <v>-0.07766087394920872</v>
+        <v>0.09365622597037919</v>
       </c>
       <c r="E101">
-        <v>-0.0329500113528871</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0638978929588966</v>
+      </c>
+      <c r="F101">
+        <v>-0.02688372563889891</v>
+      </c>
+      <c r="G101">
+        <v>-0.09306067664771896</v>
+      </c>
+      <c r="H101">
+        <v>-0.1465504717183256</v>
+      </c>
+      <c r="I101">
+        <v>-0.02044442197243016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1036471941597861</v>
+        <v>-0.02650660876696591</v>
       </c>
       <c r="C102">
-        <v>0.1601393780628065</v>
+        <v>0.1465490732022195</v>
       </c>
       <c r="D102">
-        <v>0.05705792849046545</v>
+        <v>-0.1052943700084454</v>
       </c>
       <c r="E102">
-        <v>0.09973700663500171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04041301550811483</v>
+      </c>
+      <c r="F102">
+        <v>0.08118445417859782</v>
+      </c>
+      <c r="G102">
+        <v>-0.0195985012453797</v>
+      </c>
+      <c r="H102">
+        <v>-0.02736565167125246</v>
+      </c>
+      <c r="I102">
+        <v>0.01185787689171373</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
